--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mohamed Ashour Hassanin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIM</x:t>
   </x:si>
   <x:si>
     <x:t>1220281</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1497,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4201351852</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.4201351852</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45909.9010288194</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -262,6 +262,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Ashraf Talaat abdel hameed Sadek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ولى الدين احمد حسين محمود عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waleyeldeen Ahmed Hussein Mahmoud Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1230280</x:t>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1634,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45922.4259307523</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1756,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45909.9010288194</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -174,6 +174,12 @@
     <x:t>karim wael ismaiel yousef Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1230323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كيرلس ناصر عدلى سلامة</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230231</x:t>
   </x:si>
   <x:si>
@@ -262,6 +268,15 @@
   </x:si>
   <x:si>
     <x:t>Malak Ashraf Talaat abdel hameed Sadek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>منة الله محمد محمود ابو الفتوح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mennatullah Mohammad Mahmoud Abolfotoh</x:t>
   </x:si>
   <x:si>
     <x:t>1230279</x:t>
@@ -422,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1319,11 +1334,9 @@
       <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,16 +1359,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,16 +1391,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,16 +1423,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5753908565</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,16 +1455,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4150028935</x:v>
+        <x:v>45914.5753908565</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,16 +1487,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45909.4150028935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,16 +1519,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.1202795139</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,16 +1551,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,16 +1583,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4201351852</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,16 +1615,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.4201351852</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,16 +1647,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45922.4259307523</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,16 +1679,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45927.070558912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,16 +1711,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45922.4259307523</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,16 +1743,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1762,16 +1775,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1801,70 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.4205376157</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45909.9010288194</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -141,6 +141,15 @@
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد مقبل محمد عبد المنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Khaled Mokbel</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230213</x:t>
   </x:si>
   <x:si>
@@ -205,15 +214,6 @@
   </x:si>
   <x:si>
     <x:t>MOHAMED KHAIRY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
   </x:si>
   <x:si>
     <x:t>1230324</x:t>
@@ -745,7 +745,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.070625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.250625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.920625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1212,7 +1212,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1240,9 +1240,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.0805219097</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1265,16 +1267,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45918.0805219097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1306,7 +1306,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1334,9 +1334,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.0678146991</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1359,16 +1361,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1400,7 +1400,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1432,7 +1432,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1464,7 +1464,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5753908565</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Retaj hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230194</x:t>
@@ -437,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -737,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1020,7 +1029,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4204129977</x:v>
+        <x:v>45928.476215162</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1052,7 +1061,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.4204129977</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1084,7 +1093,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.5626916667</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1116,7 +1125,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45914.5626916667</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4154735301</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4610953704</x:v>
+        <x:v>45907.4154735301</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4222459143</x:v>
+        <x:v>45907.4610953704</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1272,9 +1281,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.0805219097</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1297,16 +1308,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45918.0805219097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1366,9 +1375,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.0678146991</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1391,16 +1402,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1432,7 +1441,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1464,7 +1473,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1496,7 +1505,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4150028935</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1528,7 +1537,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45909.4150028935</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1560,7 +1569,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45920.1202795139</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1592,7 +1601,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1624,7 +1633,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4201351852</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1656,7 +1665,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.4201351852</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1688,7 +1697,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.070558912</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.4259307523</x:v>
+        <x:v>45927.070558912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45922.4259307523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1866,6 +1875,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45909.9010288194</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1878,6 +1919,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [3708]3708-45-الجيزة الرئيسي Time : Thursday(11:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Mohamed Said Abdelaziz Mohamed Sabet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر الوليد محمد السيد إبراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
     <x:t>1220133</x:t>
@@ -446,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1221,7 +1212,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4610953704</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1253,7 +1244,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4222459143</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1281,11 +1272,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45918.0805219097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1308,14 +1297,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45918.0805219097</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1375,11 +1366,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1402,14 +1391,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45927.0678146991</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1441,7 +1432,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1473,7 +1464,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1505,7 +1496,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45909.4150028935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1537,7 +1528,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4150028935</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1569,7 +1560,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1601,7 +1592,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45920.1202795139</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1633,7 +1624,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45907.4201351852</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1665,7 +1656,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4201351852</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1697,7 +1688,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45927.070558912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1729,7 +1720,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.070558912</x:v>
+        <x:v>45922.4259307523</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1761,7 +1752,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.4259307523</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1793,7 +1784,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1825,7 +1816,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1848,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45909.9010288194</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1875,38 +1866,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45909.9010288194</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1919,9 +1878,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [3708]3708-45-الجيزة الرئيسي Time : Thursday(11:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Julia Ehab thabet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روفانا عماد سمير ميشيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rovana Emad Samir Micheal</x:t>
   </x:si>
   <x:si>
     <x:t>1230036</x:t>
@@ -437,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -737,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -988,7 +997,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.419643206</x:v>
+        <x:v>45909.4323649306</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1020,7 +1029,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.476215162</x:v>
+        <x:v>45907.419643206</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1052,7 +1061,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4204129977</x:v>
+        <x:v>45928.476215162</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1084,7 +1093,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45907.4204129977</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1116,7 +1125,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.5626916667</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45914.5626916667</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4154735301</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4222459143</x:v>
+        <x:v>45907.4154735301</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1272,9 +1281,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.0805219097</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1297,16 +1308,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45918.0805219097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1366,9 +1375,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.0678146991</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1391,16 +1402,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1432,7 +1441,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1464,7 +1473,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1496,7 +1505,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4150028935</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1528,7 +1537,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45909.4150028935</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1560,7 +1569,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45920.1202795139</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1592,7 +1601,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1624,7 +1633,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4201351852</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1656,7 +1665,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45907.4201351852</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1688,7 +1697,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.070558912</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.4259307523</x:v>
+        <x:v>45927.070558912</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45922.4259307523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1866,6 +1875,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45909.9010288194</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1878,6 +1919,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [3708]3708-45-الجيزة الرئيسي Time : Thursday(11:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -249,7 +249,7 @@
     <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>MARIM</x:t>
+    <x:t>Mariam Ramy Mohamed Said Zaki Radwan</x:t>
   </x:si>
   <x:si>
     <x:t>1220281</x:t>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Retaj hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1230194</x:t>
@@ -446,7 +437,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +737,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1061,7 +1052,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.476215162</x:v>
+        <x:v>45907.4204129977</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1093,7 +1084,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4204129977</x:v>
+        <x:v>45907.420984838</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1125,7 +1116,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.420984838</x:v>
+        <x:v>45914.5626916667</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1157,7 +1148,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.5626916667</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1189,7 +1180,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45907.4154735301</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1221,7 +1212,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4154735301</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1253,7 +1244,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4222459143</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1281,11 +1272,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45918.0805219097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1308,14 +1297,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45918.0805219097</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1375,11 +1366,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45927.0678146991</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1402,14 +1391,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45927.0678146991</x:v>
+        <x:v>45907.4229982639</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1441,7 +1432,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4229982639</x:v>
+        <x:v>45907.4524542824</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1473,7 +1464,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4524542824</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1505,7 +1496,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45909.4150028935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1537,7 +1528,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4150028935</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1569,7 +1560,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45920.1202795139</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1601,7 +1592,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45920.1202795139</x:v>
+        <x:v>45907.416086956</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1633,7 +1624,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.416086956</x:v>
+        <x:v>45907.4201351852</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1665,7 +1656,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4201351852</x:v>
+        <x:v>45907.4210797106</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1697,7 +1688,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4210797106</x:v>
+        <x:v>45927.070558912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1729,7 +1720,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.070558912</x:v>
+        <x:v>45922.4259307523</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1761,7 +1752,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.4259307523</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1793,7 +1784,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45907.4203140046</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1825,7 +1816,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4203140046</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1848,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4205376157</x:v>
+        <x:v>45909.9010288194</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1875,38 +1866,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45909.9010288194</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1919,9 +1878,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [3708]3708-45-الجيزة الرئيسي Time : Thursday(11:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS201_Tutorial-35670.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35670.xlsx
@@ -66,7 +66,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1230027</x:t>
